--- a/APM files/128788863/Export Results/128788863 EXPORT 4 EQC template_result.xlsx
+++ b/APM files/128788863/Export Results/128788863 EXPORT 4 EQC template_result.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Error" r:id="rId3" sheetId="1"/>
+    <sheet name="Success" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -146,71 +146,131 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>38231185</t>
-        </is>
-      </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
+          <t>37833667</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Apartments Branka</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1133</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Travelsoft</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>b2b@adriagate.com,b2b@adriagate.com,support@travelsoft.hr,info@adriagate.com,product@adriagate.com</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Associated Partners</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Downstream Error - No Partner System connected to the hotel(38231185).</t>
-        </is>
-      </c>
+          <t>Retrieved</t>
+        </is>
+      </c>
+      <c r="I2"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>38161830</t>
-        </is>
-      </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
+          <t>37833667</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Apartments Branka</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1133</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Travelsoft</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>b2b@adriagate.com,b2b@adriagate.com,support@travelsoft.hr,info@adriagate.com,product@adriagate.com</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Associated Partners</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Downstream Error - No Partner System connected to the hotel(38161830).</t>
-        </is>
-      </c>
+          <t>Retrieved</t>
+        </is>
+      </c>
+      <c r="I3"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>38161847</t>
-        </is>
-      </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
+          <t>37833667</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Apartments Branka</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1133</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Travelsoft</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>b2b@adriagate.com,b2b@adriagate.com,support@travelsoft.hr,info@adriagate.com,product@adriagate.com</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Associated Partners</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Downstream Error - No Partner System connected to the hotel(38161847).</t>
-        </is>
-      </c>
+          <t>Retrieved</t>
+        </is>
+      </c>
+      <c r="I4"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -218,22 +278,902 @@
           <t>37833667</t>
         </is>
       </c>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Apartments Branka</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1133</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Travelsoft</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>PRODUCT</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>b2b@adriagate.com,b2b@adriagate.com,support@travelsoft.hr,info@adriagate.com,product@adriagate.com</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Associated Partners</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Downstream Error - No Partner System connected to the hotel(37833667).</t>
-        </is>
-      </c>
+          <t>Retrieved</t>
+        </is>
+      </c>
+      <c r="I5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>37833667</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Apartments Branka</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1133</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Travelsoft</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>PROMO</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>b2b@adriagate.com,b2b@adriagate.com,support@travelsoft.hr,info@adriagate.com,product@adriagate.com</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Retrieved</t>
+        </is>
+      </c>
+      <c r="I6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>37833667</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Apartments Branka</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1133</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Travelsoft</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>XPRESSO</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>b2b@adriagate.com,b2b@adriagate.com,support@travelsoft.hr,info@adriagate.com,product@adriagate.com</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Retrieved</t>
+        </is>
+      </c>
+      <c r="I7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>38161847</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>House Blanka</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1133</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Travelsoft</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>b2b@adriagate.com,b2b@adriagate.com,support@travelsoft.hr,info@adriagate.com,product@adriagate.com</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Retrieved</t>
+        </is>
+      </c>
+      <c r="I8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>38161847</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>House Blanka</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1133</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Travelsoft</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>b2b@adriagate.com,b2b@adriagate.com,support@travelsoft.hr,info@adriagate.com,product@adriagate.com</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Retrieved</t>
+        </is>
+      </c>
+      <c r="I9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>38161847</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>House Blanka</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1133</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Travelsoft</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>b2b@adriagate.com,b2b@adriagate.com,support@travelsoft.hr,info@adriagate.com,product@adriagate.com</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Retrieved</t>
+        </is>
+      </c>
+      <c r="I10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>38161847</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>House Blanka</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1133</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Travelsoft</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>PRODUCT</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>b2b@adriagate.com,b2b@adriagate.com,support@travelsoft.hr,info@adriagate.com,product@adriagate.com</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Retrieved</t>
+        </is>
+      </c>
+      <c r="I11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>38161847</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>House Blanka</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1133</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Travelsoft</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>PROMO</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>b2b@adriagate.com,b2b@adriagate.com,support@travelsoft.hr,info@adriagate.com,product@adriagate.com</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Retrieved</t>
+        </is>
+      </c>
+      <c r="I12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>38161847</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>House Blanka</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1133</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Travelsoft</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>XPRESSO</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>b2b@adriagate.com,b2b@adriagate.com,support@travelsoft.hr,info@adriagate.com,product@adriagate.com</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Retrieved</t>
+        </is>
+      </c>
+      <c r="I13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>38161830</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Apartment Anica</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1133</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Travelsoft</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>b2b@adriagate.com,b2b@adriagate.com,support@travelsoft.hr,info@adriagate.com,product@adriagate.com</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Retrieved</t>
+        </is>
+      </c>
+      <c r="I14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>38161830</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Apartment Anica</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1133</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Travelsoft</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>b2b@adriagate.com,b2b@adriagate.com,support@travelsoft.hr,info@adriagate.com,product@adriagate.com</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Retrieved</t>
+        </is>
+      </c>
+      <c r="I15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>38161830</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Apartment Anica</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1133</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Travelsoft</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>b2b@adriagate.com,b2b@adriagate.com,support@travelsoft.hr,info@adriagate.com,product@adriagate.com</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Retrieved</t>
+        </is>
+      </c>
+      <c r="I16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>38161830</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Apartment Anica</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1133</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Travelsoft</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>PRODUCT</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>b2b@adriagate.com,b2b@adriagate.com,support@travelsoft.hr,info@adriagate.com,product@adriagate.com</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Retrieved</t>
+        </is>
+      </c>
+      <c r="I17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>38161830</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Apartment Anica</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1133</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Travelsoft</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>PROMO</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>b2b@adriagate.com,b2b@adriagate.com,support@travelsoft.hr,info@adriagate.com,product@adriagate.com</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Retrieved</t>
+        </is>
+      </c>
+      <c r="I18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>38161830</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Apartment Anica</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1133</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Travelsoft</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>XPRESSO</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>b2b@adriagate.com,b2b@adriagate.com,support@travelsoft.hr,info@adriagate.com,product@adriagate.com</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Retrieved</t>
+        </is>
+      </c>
+      <c r="I19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>38231185</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Apartment 3M</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1133</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Travelsoft</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>b2b@adriagate.com,b2b@adriagate.com,support@travelsoft.hr,info@adriagate.com,product@adriagate.com</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Retrieved</t>
+        </is>
+      </c>
+      <c r="I20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>38231185</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Apartment 3M</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1133</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Travelsoft</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>b2b@adriagate.com,b2b@adriagate.com,support@travelsoft.hr,info@adriagate.com,product@adriagate.com</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Retrieved</t>
+        </is>
+      </c>
+      <c r="I21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>38231185</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Apartment 3M</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1133</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Travelsoft</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>IMAGE</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>b2b@adriagate.com,b2b@adriagate.com,support@travelsoft.hr,info@adriagate.com,product@adriagate.com</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Retrieved</t>
+        </is>
+      </c>
+      <c r="I22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>38231185</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Apartment 3M</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1133</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Travelsoft</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>PRODUCT</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>b2b@adriagate.com,b2b@adriagate.com,support@travelsoft.hr,info@adriagate.com,product@adriagate.com</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Retrieved</t>
+        </is>
+      </c>
+      <c r="I23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>38231185</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Apartment 3M</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1133</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Travelsoft</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>PROMO</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>b2b@adriagate.com,b2b@adriagate.com,support@travelsoft.hr,info@adriagate.com,product@adriagate.com</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Retrieved</t>
+        </is>
+      </c>
+      <c r="I24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>38231185</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Apartment 3M</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1133</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Travelsoft</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>XPRESSO</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>b2b@adriagate.com,b2b@adriagate.com,support@travelsoft.hr,info@adriagate.com,product@adriagate.com</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Retrieved</t>
+        </is>
+      </c>
+      <c r="I25"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
